--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -28,6 +28,7 @@
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="abc" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
+    <definedName name="average">★年間勤務表（1ヶ月）!$P$5</definedName>
     <definedName name="def" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="empInfo">★年間勤務表（1ヶ月）!$A$5:$B$14</definedName>
@@ -37,8 +38,11 @@
     <definedName name="item">★年間勤務表（1ヶ月）!$C$5</definedName>
     <definedName name="kkkk" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
+    <definedName name="month10th">★年間勤務表（1ヶ月）!$M$5</definedName>
     <definedName name="month10thLabel">★年間勤務表（1ヶ月）!$M$3</definedName>
+    <definedName name="month11th">★年間勤務表（1ヶ月）!$N$5</definedName>
     <definedName name="month11thLabel">★年間勤務表（1ヶ月）!$N$3</definedName>
+    <definedName name="month12th">★年間勤務表（1ヶ月）!$O$5</definedName>
     <definedName name="month12thLabel">★年間勤務表（1ヶ月）!$O$3</definedName>
     <definedName name="month1st">★年間勤務表（1ヶ月）!$D$5</definedName>
     <definedName name="month1stLabel">★年間勤務表（1ヶ月）!$D$3</definedName>
@@ -46,23 +50,31 @@
     <definedName name="month2ndLabel">★年間勤務表（1ヶ月）!$E$3</definedName>
     <definedName name="month3rd">★年間勤務表（1ヶ月）!$F$5</definedName>
     <definedName name="month3rdLabel">★年間勤務表（1ヶ月）!$F$3</definedName>
+    <definedName name="month4th">★年間勤務表（1ヶ月）!$G$5</definedName>
     <definedName name="month4thLabel">★年間勤務表（1ヶ月）!$G$3</definedName>
+    <definedName name="month5th">★年間勤務表（1ヶ月）!$H$5</definedName>
     <definedName name="month5thLabel">★年間勤務表（1ヶ月）!$H$3</definedName>
+    <definedName name="month6th">★年間勤務表（1ヶ月）!$I$5</definedName>
     <definedName name="month6thLabel">★年間勤務表（1ヶ月）!$I$3</definedName>
+    <definedName name="month7th">★年間勤務表（1ヶ月）!$J$5</definedName>
     <definedName name="month7thLabel">★年間勤務表（1ヶ月）!$J$3</definedName>
+    <definedName name="month8th">★年間勤務表（1ヶ月）!$K$5</definedName>
     <definedName name="month8thLabel">★年間勤務表（1ヶ月）!$K$3</definedName>
+    <definedName name="month9th">★年間勤務表（1ヶ月）!$L$5</definedName>
     <definedName name="month9thLabel">★年間勤務表（1ヶ月）!$L$3</definedName>
-    <definedName name="monthGroup1">★年間勤務表（1ヶ月）!$S$3</definedName>
-    <definedName name="monthGroup2">★年間勤務表（1ヶ月）!$T$3</definedName>
-    <definedName name="monthGroup3">★年間勤務表（1ヶ月）!$U$3</definedName>
-    <definedName name="monthGroup4">★年間勤務表（1ヶ月）!$V$3</definedName>
-    <definedName name="monthGroup5">★年間勤務表（1ヶ月）!$W$3</definedName>
-    <definedName name="monthGroup6">★年間勤務表（1ヶ月）!$X$3</definedName>
-    <definedName name="monthGroup6Range">★年間勤務表（1ヶ月）!$X$2:$X$3</definedName>
-    <definedName name="monthGroup7">★年間勤務表（1ヶ月）!$Y$3</definedName>
+    <definedName name="monthPeriod6Range">★年間勤務表（1ヶ月）!$X$2:$X$3</definedName>
+    <definedName name="monthPeriodLabel1">★年間勤務表（1ヶ月）!$S$3</definedName>
+    <definedName name="monthPeriodLabel2">★年間勤務表（1ヶ月）!$T$3</definedName>
+    <definedName name="monthPeriodLabel3">★年間勤務表（1ヶ月）!$U$3</definedName>
+    <definedName name="monthPeriodLabel4">★年間勤務表（1ヶ月）!$V$3</definedName>
+    <definedName name="monthPeriodLabel5">★年間勤務表（1ヶ月）!$W$3</definedName>
+    <definedName name="monthPeriodLabel6">★年間勤務表（1ヶ月）!$X$3</definedName>
+    <definedName name="monthPeriodLabel7">★年間勤務表（1ヶ月）!$Y$3</definedName>
+    <definedName name="numExceedTime">★年間勤務表（1ヶ月）!$R$5</definedName>
     <definedName name="outputAgreementTime">★年間勤務表（1ヶ月）!$S$2</definedName>
     <definedName name="period">★年間勤務表（1ヶ月）!$A$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">★年間勤務表（1ヶ月）!$1:$3</definedName>
+    <definedName name="sum">★年間勤務表（1ヶ月）!$Q$5</definedName>
     <definedName name="workplace">★年間勤務表（1ヶ月）!$A$4</definedName>
     <definedName name="workplaceRange">★年間勤務表（1ヶ月）!$A$4:$Y$14</definedName>
     <definedName name="workplaceRow">★年間勤務表（1ヶ月）!$A$4:$Y$4</definedName>
@@ -719,7 +731,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,6 +855,12 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -875,9 +893,6 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -945,6 +960,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF00B050"/>
+      <color rgb="FF4F81BD"/>
       <color rgb="FFDDEBF7"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF9BC2E6"/>
@@ -1267,11 +1284,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -1320,11 +1337,11 @@
       <c r="W2" s="16"/>
       <c r="X2" s="16"/>
       <c r="Y2" s="17"/>
-      <c r="Z2" s="52"/>
+      <c r="Z2" s="41"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="40"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -1352,15 +1369,15 @@
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
       <c r="Y3" s="19"/>
-      <c r="Z3" s="52"/>
+      <c r="Z3" s="41"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="24"/>
@@ -1382,8 +1399,8 @@
       <c r="Y4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="25"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1409,8 +1426,8 @@
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="26"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1436,8 +1453,8 @@
       <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="27"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1651,6 +1668,9 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1">
+      <c r="E15" s="42"/>
+    </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -34,8 +34,10 @@
     <definedName name="empInfo">★年間勤務表（1ヶ月）!$A$5:$B$14</definedName>
     <definedName name="empInfoLabel">★年間勤務表（1ヶ月）!$A$3</definedName>
     <definedName name="employeeRange">★年間勤務表（1ヶ月）!$A$5:$Y$14</definedName>
+    <definedName name="employmentName">★年間勤務表（1ヶ月）!$A$6</definedName>
     <definedName name="empName">★年間勤務表（1ヶ月）!$A$5</definedName>
     <definedName name="item">★年間勤務表（1ヶ月）!$C$5</definedName>
+    <definedName name="jobTitle">★年間勤務表（1ヶ月）!$A$7</definedName>
     <definedName name="kkkk" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
     <definedName name="month10th">★年間勤務表（1ヶ月）!$M$5</definedName>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -743,9 +743,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -770,9 +767,6 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -809,9 +803,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -895,6 +886,15 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1286,662 +1286,662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="35" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="41"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="10" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="41"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="38"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="20"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
-      <c r="E15" s="42"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
     </row>
     <row r="24" spans="1:25" ht="15" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
     </row>
     <row r="25" spans="1:25" ht="15" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -75,6 +75,13 @@
     <definedName name="numExceedTime">★年間勤務表（1ヶ月）!$R$5</definedName>
     <definedName name="outputAgreementTime">★年間勤務表（1ヶ月）!$S$2</definedName>
     <definedName name="period">★年間勤務表（1ヶ月）!$A$1</definedName>
+    <definedName name="period1st">★年間勤務表（1ヶ月）!$S$5</definedName>
+    <definedName name="period2nd">★年間勤務表（1ヶ月）!$T$5</definedName>
+    <definedName name="period3rd">★年間勤務表（1ヶ月）!$U$5</definedName>
+    <definedName name="period4th">★年間勤務表（1ヶ月）!$V$5</definedName>
+    <definedName name="period5th">★年間勤務表（1ヶ月）!$W$5</definedName>
+    <definedName name="period6th">★年間勤務表（1ヶ月）!$X$5</definedName>
+    <definedName name="period7th">★年間勤務表（1ヶ月）!$Y$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">★年間勤務表（1ヶ月）!$1:$3</definedName>
     <definedName name="sum">★年間勤務表（1ヶ月）!$Q$5</definedName>
     <definedName name="workplace">★年間勤務表（1ヶ月）!$A$4</definedName>
@@ -854,6 +861,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -886,15 +902,6 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1286,11 +1293,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1342,8 +1349,8 @@
       <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="37"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -1374,12 +1381,12 @@
       <c r="Z3" s="38"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
       <c r="I4" s="22"/>
@@ -1401,35 +1408,35 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="23"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1455,8 +1462,8 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="24"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\Documents\nitsu\source_branch_teamC_3s\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\NITTSU\UniversalK2\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -136,13 +136,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="165" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="169" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
+    <numFmt numFmtId="174" formatCode="0&quot;回&quot;;;;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -740,7 +741,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +903,9 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1277,7 +1281,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1425,7 +1429,9 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="42"/>
-      <c r="R5" s="41"/>
+      <c r="R5" s="54">
+        <v>2</v>
+      </c>
       <c r="S5" s="41"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -143,7 +143,7 @@
     <numFmt numFmtId="167" formatCode="0.000%"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="169" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
-    <numFmt numFmtId="174" formatCode="0&quot;回&quot;;;;@"/>
+    <numFmt numFmtId="170" formatCode="0&quot;回&quot;;;;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -871,6 +871,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -903,9 +906,6 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1297,11 +1297,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1353,8 +1353,8 @@
       <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="37"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -1385,12 +1385,12 @@
       <c r="Z3" s="38"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
       <c r="I4" s="22"/>
@@ -1412,8 +1412,8 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="40"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -1429,9 +1429,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="42"/>
-      <c r="R5" s="54">
-        <v>2</v>
-      </c>
+      <c r="R5" s="43"/>
       <c r="S5" s="41"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
@@ -1441,8 +1439,8 @@
       <c r="Y5" s="41"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="23"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1468,8 +1466,8 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="24"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\NITTSU\UniversalK2\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NITTSU\PJ\KWR008\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,65 +28,64 @@
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="abc" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
-    <definedName name="average">★年間勤務表（1ヶ月）!$P$5</definedName>
+    <definedName name="average">'★年間勤務表（1ヶ月）'!$P$5</definedName>
     <definedName name="def" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
-    <definedName name="empInfo">★年間勤務表（1ヶ月）!$A$5:$B$14</definedName>
-    <definedName name="empInfoLabel">★年間勤務表（1ヶ月）!$A$3</definedName>
-    <definedName name="employeeRange">★年間勤務表（1ヶ月）!$A$5:$Y$14</definedName>
-    <definedName name="employmentName">★年間勤務表（1ヶ月）!$A$6</definedName>
-    <definedName name="empName">★年間勤務表（1ヶ月）!$A$5</definedName>
-    <definedName name="item">★年間勤務表（1ヶ月）!$C$5</definedName>
-    <definedName name="jobTitle">★年間勤務表（1ヶ月）!$A$7</definedName>
+    <definedName name="empInfoLabel">'★年間勤務表（1ヶ月）'!$A$3</definedName>
+    <definedName name="employeeRange">'★年間勤務表（1ヶ月）'!$A$5:$Z$14</definedName>
+    <definedName name="employmentName">'★年間勤務表（1ヶ月）'!$A$6</definedName>
+    <definedName name="empName">'★年間勤務表（1ヶ月）'!$A$5</definedName>
+    <definedName name="item">'★年間勤務表（1ヶ月）'!$C$5</definedName>
+    <definedName name="jobTitle">'★年間勤務表（1ヶ月）'!$A$7</definedName>
     <definedName name="kkkk" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
-    <definedName name="month10th">★年間勤務表（1ヶ月）!$M$5</definedName>
-    <definedName name="month10thLabel">★年間勤務表（1ヶ月）!$M$3</definedName>
-    <definedName name="month11th">★年間勤務表（1ヶ月）!$N$5</definedName>
-    <definedName name="month11thLabel">★年間勤務表（1ヶ月）!$N$3</definedName>
-    <definedName name="month12th">★年間勤務表（1ヶ月）!$O$5</definedName>
-    <definedName name="month12thLabel">★年間勤務表（1ヶ月）!$O$3</definedName>
-    <definedName name="month1st">★年間勤務表（1ヶ月）!$D$5</definedName>
-    <definedName name="month1stLabel">★年間勤務表（1ヶ月）!$D$3</definedName>
-    <definedName name="month2nd">★年間勤務表（1ヶ月）!$E$5</definedName>
-    <definedName name="month2ndLabel">★年間勤務表（1ヶ月）!$E$3</definedName>
-    <definedName name="month3rd">★年間勤務表（1ヶ月）!$F$5</definedName>
-    <definedName name="month3rdLabel">★年間勤務表（1ヶ月）!$F$3</definedName>
-    <definedName name="month4th">★年間勤務表（1ヶ月）!$G$5</definedName>
-    <definedName name="month4thLabel">★年間勤務表（1ヶ月）!$G$3</definedName>
-    <definedName name="month5th">★年間勤務表（1ヶ月）!$H$5</definedName>
-    <definedName name="month5thLabel">★年間勤務表（1ヶ月）!$H$3</definedName>
-    <definedName name="month6th">★年間勤務表（1ヶ月）!$I$5</definedName>
-    <definedName name="month6thLabel">★年間勤務表（1ヶ月）!$I$3</definedName>
-    <definedName name="month7th">★年間勤務表（1ヶ月）!$J$5</definedName>
-    <definedName name="month7thLabel">★年間勤務表（1ヶ月）!$J$3</definedName>
-    <definedName name="month8th">★年間勤務表（1ヶ月）!$K$5</definedName>
-    <definedName name="month8thLabel">★年間勤務表（1ヶ月）!$K$3</definedName>
-    <definedName name="month9th">★年間勤務表（1ヶ月）!$L$5</definedName>
-    <definedName name="month9thLabel">★年間勤務表（1ヶ月）!$L$3</definedName>
-    <definedName name="monthPeriod6Range">★年間勤務表（1ヶ月）!$X$2:$X$3</definedName>
-    <definedName name="monthPeriodLabel1">★年間勤務表（1ヶ月）!$S$3</definedName>
-    <definedName name="monthPeriodLabel2">★年間勤務表（1ヶ月）!$T$3</definedName>
-    <definedName name="monthPeriodLabel3">★年間勤務表（1ヶ月）!$U$3</definedName>
-    <definedName name="monthPeriodLabel4">★年間勤務表（1ヶ月）!$V$3</definedName>
-    <definedName name="monthPeriodLabel5">★年間勤務表（1ヶ月）!$W$3</definedName>
-    <definedName name="monthPeriodLabel6">★年間勤務表（1ヶ月）!$X$3</definedName>
-    <definedName name="monthPeriodLabel7">★年間勤務表（1ヶ月）!$Y$3</definedName>
-    <definedName name="numExceedTime">★年間勤務表（1ヶ月）!$R$5</definedName>
-    <definedName name="outputAgreementTime">★年間勤務表（1ヶ月）!$S$2</definedName>
-    <definedName name="period">★年間勤務表（1ヶ月）!$A$1</definedName>
-    <definedName name="period1st">★年間勤務表（1ヶ月）!$S$5</definedName>
-    <definedName name="period2nd">★年間勤務表（1ヶ月）!$T$5</definedName>
-    <definedName name="period3rd">★年間勤務表（1ヶ月）!$U$5</definedName>
-    <definedName name="period4th">★年間勤務表（1ヶ月）!$V$5</definedName>
-    <definedName name="period5th">★年間勤務表（1ヶ月）!$W$5</definedName>
-    <definedName name="period6th">★年間勤務表（1ヶ月）!$X$5</definedName>
-    <definedName name="period7th">★年間勤務表（1ヶ月）!$Y$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">★年間勤務表（1ヶ月）!$1:$3</definedName>
-    <definedName name="sum">★年間勤務表（1ヶ月）!$Q$5</definedName>
-    <definedName name="workplace">★年間勤務表（1ヶ月）!$A$4</definedName>
-    <definedName name="workplaceRange">★年間勤務表（1ヶ月）!$A$4:$Y$14</definedName>
-    <definedName name="workplaceRow">★年間勤務表（1ヶ月）!$A$4:$Y$4</definedName>
+    <definedName name="month10th">'★年間勤務表（1ヶ月）'!$M$5</definedName>
+    <definedName name="month10thLabel">'★年間勤務表（1ヶ月）'!$M$3</definedName>
+    <definedName name="month11th">'★年間勤務表（1ヶ月）'!$N$5</definedName>
+    <definedName name="month11thLabel">'★年間勤務表（1ヶ月）'!$N$3</definedName>
+    <definedName name="month12th">'★年間勤務表（1ヶ月）'!$O$5</definedName>
+    <definedName name="month12thLabel">'★年間勤務表（1ヶ月）'!$O$3</definedName>
+    <definedName name="month1st">'★年間勤務表（1ヶ月）'!$D$5</definedName>
+    <definedName name="month1stLabel">'★年間勤務表（1ヶ月）'!$D$3</definedName>
+    <definedName name="month2nd">'★年間勤務表（1ヶ月）'!$E$5</definedName>
+    <definedName name="month2ndLabel">'★年間勤務表（1ヶ月）'!$E$3</definedName>
+    <definedName name="month3rd">'★年間勤務表（1ヶ月）'!$F$5</definedName>
+    <definedName name="month3rdLabel">'★年間勤務表（1ヶ月）'!$F$3</definedName>
+    <definedName name="month4th">'★年間勤務表（1ヶ月）'!$G$5</definedName>
+    <definedName name="month4thLabel">'★年間勤務表（1ヶ月）'!$G$3</definedName>
+    <definedName name="month5th">'★年間勤務表（1ヶ月）'!$H$5</definedName>
+    <definedName name="month5thLabel">'★年間勤務表（1ヶ月）'!$H$3</definedName>
+    <definedName name="month6th">'★年間勤務表（1ヶ月）'!$I$5</definedName>
+    <definedName name="month6thLabel">'★年間勤務表（1ヶ月）'!$I$3</definedName>
+    <definedName name="month7th">'★年間勤務表（1ヶ月）'!$J$5</definedName>
+    <definedName name="month7thLabel">'★年間勤務表（1ヶ月）'!$J$3</definedName>
+    <definedName name="month8th">'★年間勤務表（1ヶ月）'!$K$5</definedName>
+    <definedName name="month8thLabel">'★年間勤務表（1ヶ月）'!$K$3</definedName>
+    <definedName name="month9th">'★年間勤務表（1ヶ月）'!$L$5</definedName>
+    <definedName name="month9thLabel">'★年間勤務表（1ヶ月）'!$L$3</definedName>
+    <definedName name="monthPeriod6Range">'★年間勤務表（1ヶ月）'!$Y$2:$Y$3</definedName>
+    <definedName name="monthPeriodLabel1">'★年間勤務表（1ヶ月）'!$T$3</definedName>
+    <definedName name="monthPeriodLabel2">'★年間勤務表（1ヶ月）'!$U$3</definedName>
+    <definedName name="monthPeriodLabel3">'★年間勤務表（1ヶ月）'!$V$3</definedName>
+    <definedName name="monthPeriodLabel4">'★年間勤務表（1ヶ月）'!$W$3</definedName>
+    <definedName name="monthPeriodLabel5">'★年間勤務表（1ヶ月）'!$X$3</definedName>
+    <definedName name="monthPeriodLabel6">'★年間勤務表（1ヶ月）'!$Y$3</definedName>
+    <definedName name="monthPeriodLabel7">'★年間勤務表（1ヶ月）'!$Z$3</definedName>
+    <definedName name="numExceedTime">'★年間勤務表（1ヶ月）'!$R$5</definedName>
+    <definedName name="numExceedTime1">'★年間勤務表（1ヶ月）'!$R$5</definedName>
+    <definedName name="numRemainingTime">'★年間勤務表（1ヶ月）'!$S$5</definedName>
+    <definedName name="outputAgreementTime">'★年間勤務表（1ヶ月）'!$T$2</definedName>
+    <definedName name="period">'★年間勤務表（1ヶ月）'!$A$1</definedName>
+    <definedName name="period1st">'★年間勤務表（1ヶ月）'!$T$5</definedName>
+    <definedName name="period2nd">'★年間勤務表（1ヶ月）'!$U$5</definedName>
+    <definedName name="period3rd">'★年間勤務表（1ヶ月）'!$V$5</definedName>
+    <definedName name="period4th">'★年間勤務表（1ヶ月）'!$W$5</definedName>
+    <definedName name="period5th">'★年間勤務表（1ヶ月）'!$X$5</definedName>
+    <definedName name="period6th">'★年間勤務表（1ヶ月）'!$Y$5</definedName>
+    <definedName name="period7th">'★年間勤務表（1ヶ月）'!$Z$5</definedName>
+    <definedName name="sum">'★年間勤務表（1ヶ月）'!$Q$5</definedName>
+    <definedName name="workplace">'★年間勤務表（1ヶ月）'!$A$4</definedName>
+    <definedName name="workplaceRange">'★年間勤務表（1ヶ月）'!$A$4:$Z$14</definedName>
     <definedName name="wrn.MIND." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="あああ" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -101,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>年間</t>
     <phoneticPr fontId="3"/>
@@ -124,11 +123,15 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>平均</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>月</t>
+    <t>残数</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -137,13 +140,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
-    <numFmt numFmtId="170" formatCode="0&quot;回&quot;;;;@"/>
+    <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
+    <numFmt numFmtId="182" formatCode="0&quot;回&quot;;;;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -293,7 +296,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -301,7 +304,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -626,9 +629,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -643,7 +646,7 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" applyProtection="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="right"/>
@@ -658,8 +661,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,7 +874,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -1286,17 +1289,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="14" width="5.42578125" style="1" customWidth="1"/>
     <col min="15" max="17" width="5.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="2" customWidth="1"/>
-    <col min="19" max="24" width="5.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.42578125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="3.140625" style="2"/>
+    <col min="18" max="19" width="3.7109375" style="2" customWidth="1"/>
+    <col min="20" max="25" width="5.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="44"/>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -1311,14 +1314,14 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1">
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" spans="1:27" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="8"/>
@@ -1335,7 +1338,7 @@
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
       <c r="P2" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="21" t="s">
         <v>0</v>
@@ -1343,16 +1346,19 @@
       <c r="R2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="14"/>
+      <c r="S2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="21"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="38"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="38"/>
+    </row>
+    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="37"/>
@@ -1369,22 +1375,25 @@
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
       <c r="P3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="16"/>
+      <c r="S3" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="16"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="38"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="38"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="46"/>
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
@@ -1403,15 +1412,16 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="19"/>
-      <c r="S4" s="20"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="20"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="22"/>
       <c r="W4" s="20"/>
       <c r="X4" s="20"/>
-      <c r="Y4" s="18"/>
-    </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1">
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="18"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" customHeight="1">
       <c r="A5" s="53"/>
       <c r="B5" s="54"/>
       <c r="C5" s="40"/>
@@ -1430,15 +1440,16 @@
       <c r="P5" s="41"/>
       <c r="Q5" s="42"/>
       <c r="R5" s="43"/>
-      <c r="S5" s="41"/>
+      <c r="S5" s="43"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
       <c r="V5" s="41"/>
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
       <c r="Y5" s="41"/>
-    </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1">
+      <c r="Z5" s="41"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" customHeight="1">
       <c r="A6" s="49"/>
       <c r="B6" s="50"/>
       <c r="C6" s="23"/>
@@ -1464,8 +1475,9 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1">
       <c r="A7" s="49"/>
       <c r="B7" s="51"/>
       <c r="C7" s="24"/>
@@ -1491,8 +1503,9 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1">
       <c r="A8" s="29"/>
       <c r="B8" s="30"/>
       <c r="C8" s="25"/>
@@ -1518,8 +1531,9 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1">
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1">
       <c r="A9" s="29"/>
       <c r="B9" s="30"/>
       <c r="C9" s="26"/>
@@ -1545,8 +1559,9 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
       <c r="C10" s="25"/>
@@ -1572,8 +1587,9 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1">
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="29"/>
       <c r="B11" s="30"/>
       <c r="C11" s="26"/>
@@ -1599,8 +1615,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="25"/>
@@ -1626,8 +1643,9 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1">
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1">
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
       <c r="C13" s="26"/>
@@ -1653,8 +1671,9 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="28"/>
       <c r="B14" s="31"/>
       <c r="C14" s="27"/>
@@ -1680,11 +1699,12 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1">
+      <c r="Z14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1">
       <c r="E15" s="39"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1">
+    <row r="16" spans="1:27" ht="15" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1710,8 +1730,9 @@
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
       <c r="Y16" s="36"/>
-    </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1">
+      <c r="Z16" s="36"/>
+    </row>
+    <row r="17" spans="1:26" ht="15" customHeight="1">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1737,8 +1758,9 @@
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
       <c r="Y17" s="36"/>
-    </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1">
+      <c r="Z17" s="36"/>
+    </row>
+    <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1764,8 +1786,9 @@
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
       <c r="Y18" s="36"/>
-    </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1">
+      <c r="Z18" s="36"/>
+    </row>
+    <row r="19" spans="1:26" ht="15" customHeight="1">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1791,8 +1814,9 @@
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
       <c r="Y19" s="36"/>
-    </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1">
+      <c r="Z19" s="36"/>
+    </row>
+    <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1818,8 +1842,9 @@
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
       <c r="Y20" s="36"/>
-    </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1">
+      <c r="Z20" s="36"/>
+    </row>
+    <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1845,8 +1870,9 @@
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
       <c r="Y21" s="36"/>
-    </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1">
+      <c r="Z21" s="36"/>
+    </row>
+    <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -1872,8 +1898,9 @@
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
       <c r="Y22" s="36"/>
-    </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1">
+      <c r="Z22" s="36"/>
+    </row>
+    <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1899,8 +1926,9 @@
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
       <c r="Y23" s="36"/>
-    </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1">
+      <c r="Z23" s="36"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -1926,8 +1954,9 @@
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="36"/>
-    </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1">
+      <c r="Z24" s="36"/>
+    </row>
+    <row r="25" spans="1:26" ht="15" customHeight="1">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -1953,6 +1982,7 @@
       <c r="W25" s="36"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -139,14 +139,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.000%"/>
     <numFmt numFmtId="180" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="181" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
-    <numFmt numFmtId="182" formatCode="0&quot;回&quot;;;;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -744,7 +743,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,9 +871,6 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,11 +1296,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1359,8 +1355,8 @@
       <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="37"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -1394,12 +1390,12 @@
       <c r="AA3" s="38"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
       <c r="I4" s="22"/>
@@ -1422,8 +1418,8 @@
       <c r="Z4" s="18"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="40"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -1439,8 +1435,8 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="42"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
       <c r="V5" s="41"/>
@@ -1450,8 +1446,8 @@
       <c r="Z5" s="41"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="23"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1478,8 +1474,8 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="24"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\NITTSU\UniversalK2\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NITTSU\PJ\KWR008\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,65 +28,64 @@
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="abc" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
-    <definedName name="average">★年間勤務表（1ヶ月）!$P$5</definedName>
+    <definedName name="average">'★年間勤務表（1ヶ月）'!$P$5</definedName>
     <definedName name="def" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
-    <definedName name="empInfo">★年間勤務表（1ヶ月）!$A$5:$B$14</definedName>
-    <definedName name="empInfoLabel">★年間勤務表（1ヶ月）!$A$3</definedName>
-    <definedName name="employeeRange">★年間勤務表（1ヶ月）!$A$5:$Y$14</definedName>
-    <definedName name="employmentName">★年間勤務表（1ヶ月）!$A$6</definedName>
-    <definedName name="empName">★年間勤務表（1ヶ月）!$A$5</definedName>
-    <definedName name="item">★年間勤務表（1ヶ月）!$C$5</definedName>
-    <definedName name="jobTitle">★年間勤務表（1ヶ月）!$A$7</definedName>
+    <definedName name="empInfoLabel">'★年間勤務表（1ヶ月）'!$A$3</definedName>
+    <definedName name="employeeRange">'★年間勤務表（1ヶ月）'!$A$5:$Z$14</definedName>
+    <definedName name="employmentName">'★年間勤務表（1ヶ月）'!$A$6</definedName>
+    <definedName name="empName">'★年間勤務表（1ヶ月）'!$A$5</definedName>
+    <definedName name="item">'★年間勤務表（1ヶ月）'!$C$5</definedName>
+    <definedName name="jobTitle">'★年間勤務表（1ヶ月）'!$A$7</definedName>
     <definedName name="kkkk" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
-    <definedName name="month10th">★年間勤務表（1ヶ月）!$M$5</definedName>
-    <definedName name="month10thLabel">★年間勤務表（1ヶ月）!$M$3</definedName>
-    <definedName name="month11th">★年間勤務表（1ヶ月）!$N$5</definedName>
-    <definedName name="month11thLabel">★年間勤務表（1ヶ月）!$N$3</definedName>
-    <definedName name="month12th">★年間勤務表（1ヶ月）!$O$5</definedName>
-    <definedName name="month12thLabel">★年間勤務表（1ヶ月）!$O$3</definedName>
-    <definedName name="month1st">★年間勤務表（1ヶ月）!$D$5</definedName>
-    <definedName name="month1stLabel">★年間勤務表（1ヶ月）!$D$3</definedName>
-    <definedName name="month2nd">★年間勤務表（1ヶ月）!$E$5</definedName>
-    <definedName name="month2ndLabel">★年間勤務表（1ヶ月）!$E$3</definedName>
-    <definedName name="month3rd">★年間勤務表（1ヶ月）!$F$5</definedName>
-    <definedName name="month3rdLabel">★年間勤務表（1ヶ月）!$F$3</definedName>
-    <definedName name="month4th">★年間勤務表（1ヶ月）!$G$5</definedName>
-    <definedName name="month4thLabel">★年間勤務表（1ヶ月）!$G$3</definedName>
-    <definedName name="month5th">★年間勤務表（1ヶ月）!$H$5</definedName>
-    <definedName name="month5thLabel">★年間勤務表（1ヶ月）!$H$3</definedName>
-    <definedName name="month6th">★年間勤務表（1ヶ月）!$I$5</definedName>
-    <definedName name="month6thLabel">★年間勤務表（1ヶ月）!$I$3</definedName>
-    <definedName name="month7th">★年間勤務表（1ヶ月）!$J$5</definedName>
-    <definedName name="month7thLabel">★年間勤務表（1ヶ月）!$J$3</definedName>
-    <definedName name="month8th">★年間勤務表（1ヶ月）!$K$5</definedName>
-    <definedName name="month8thLabel">★年間勤務表（1ヶ月）!$K$3</definedName>
-    <definedName name="month9th">★年間勤務表（1ヶ月）!$L$5</definedName>
-    <definedName name="month9thLabel">★年間勤務表（1ヶ月）!$L$3</definedName>
-    <definedName name="monthPeriod6Range">★年間勤務表（1ヶ月）!$X$2:$X$3</definedName>
-    <definedName name="monthPeriodLabel1">★年間勤務表（1ヶ月）!$S$3</definedName>
-    <definedName name="monthPeriodLabel2">★年間勤務表（1ヶ月）!$T$3</definedName>
-    <definedName name="monthPeriodLabel3">★年間勤務表（1ヶ月）!$U$3</definedName>
-    <definedName name="monthPeriodLabel4">★年間勤務表（1ヶ月）!$V$3</definedName>
-    <definedName name="monthPeriodLabel5">★年間勤務表（1ヶ月）!$W$3</definedName>
-    <definedName name="monthPeriodLabel6">★年間勤務表（1ヶ月）!$X$3</definedName>
-    <definedName name="monthPeriodLabel7">★年間勤務表（1ヶ月）!$Y$3</definedName>
-    <definedName name="numExceedTime">★年間勤務表（1ヶ月）!$R$5</definedName>
-    <definedName name="outputAgreementTime">★年間勤務表（1ヶ月）!$S$2</definedName>
-    <definedName name="period">★年間勤務表（1ヶ月）!$A$1</definedName>
-    <definedName name="period1st">★年間勤務表（1ヶ月）!$S$5</definedName>
-    <definedName name="period2nd">★年間勤務表（1ヶ月）!$T$5</definedName>
-    <definedName name="period3rd">★年間勤務表（1ヶ月）!$U$5</definedName>
-    <definedName name="period4th">★年間勤務表（1ヶ月）!$V$5</definedName>
-    <definedName name="period5th">★年間勤務表（1ヶ月）!$W$5</definedName>
-    <definedName name="period6th">★年間勤務表（1ヶ月）!$X$5</definedName>
-    <definedName name="period7th">★年間勤務表（1ヶ月）!$Y$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">★年間勤務表（1ヶ月）!$1:$3</definedName>
-    <definedName name="sum">★年間勤務表（1ヶ月）!$Q$5</definedName>
-    <definedName name="workplace">★年間勤務表（1ヶ月）!$A$4</definedName>
-    <definedName name="workplaceRange">★年間勤務表（1ヶ月）!$A$4:$Y$14</definedName>
-    <definedName name="workplaceRow">★年間勤務表（1ヶ月）!$A$4:$Y$4</definedName>
+    <definedName name="month10th">'★年間勤務表（1ヶ月）'!$M$5</definedName>
+    <definedName name="month10thLabel">'★年間勤務表（1ヶ月）'!$M$3</definedName>
+    <definedName name="month11th">'★年間勤務表（1ヶ月）'!$N$5</definedName>
+    <definedName name="month11thLabel">'★年間勤務表（1ヶ月）'!$N$3</definedName>
+    <definedName name="month12th">'★年間勤務表（1ヶ月）'!$O$5</definedName>
+    <definedName name="month12thLabel">'★年間勤務表（1ヶ月）'!$O$3</definedName>
+    <definedName name="month1st">'★年間勤務表（1ヶ月）'!$D$5</definedName>
+    <definedName name="month1stLabel">'★年間勤務表（1ヶ月）'!$D$3</definedName>
+    <definedName name="month2nd">'★年間勤務表（1ヶ月）'!$E$5</definedName>
+    <definedName name="month2ndLabel">'★年間勤務表（1ヶ月）'!$E$3</definedName>
+    <definedName name="month3rd">'★年間勤務表（1ヶ月）'!$F$5</definedName>
+    <definedName name="month3rdLabel">'★年間勤務表（1ヶ月）'!$F$3</definedName>
+    <definedName name="month4th">'★年間勤務表（1ヶ月）'!$G$5</definedName>
+    <definedName name="month4thLabel">'★年間勤務表（1ヶ月）'!$G$3</definedName>
+    <definedName name="month5th">'★年間勤務表（1ヶ月）'!$H$5</definedName>
+    <definedName name="month5thLabel">'★年間勤務表（1ヶ月）'!$H$3</definedName>
+    <definedName name="month6th">'★年間勤務表（1ヶ月）'!$I$5</definedName>
+    <definedName name="month6thLabel">'★年間勤務表（1ヶ月）'!$I$3</definedName>
+    <definedName name="month7th">'★年間勤務表（1ヶ月）'!$J$5</definedName>
+    <definedName name="month7thLabel">'★年間勤務表（1ヶ月）'!$J$3</definedName>
+    <definedName name="month8th">'★年間勤務表（1ヶ月）'!$K$5</definedName>
+    <definedName name="month8thLabel">'★年間勤務表（1ヶ月）'!$K$3</definedName>
+    <definedName name="month9th">'★年間勤務表（1ヶ月）'!$L$5</definedName>
+    <definedName name="month9thLabel">'★年間勤務表（1ヶ月）'!$L$3</definedName>
+    <definedName name="monthPeriod6Range">'★年間勤務表（1ヶ月）'!$Y$2:$Y$3</definedName>
+    <definedName name="monthPeriodLabel1">'★年間勤務表（1ヶ月）'!$T$3</definedName>
+    <definedName name="monthPeriodLabel2">'★年間勤務表（1ヶ月）'!$U$3</definedName>
+    <definedName name="monthPeriodLabel3">'★年間勤務表（1ヶ月）'!$V$3</definedName>
+    <definedName name="monthPeriodLabel4">'★年間勤務表（1ヶ月）'!$W$3</definedName>
+    <definedName name="monthPeriodLabel5">'★年間勤務表（1ヶ月）'!$X$3</definedName>
+    <definedName name="monthPeriodLabel6">'★年間勤務表（1ヶ月）'!$Y$3</definedName>
+    <definedName name="monthPeriodLabel7">'★年間勤務表（1ヶ月）'!$Z$3</definedName>
+    <definedName name="numExceedTime">'★年間勤務表（1ヶ月）'!$R$5</definedName>
+    <definedName name="numExceedTime1">'★年間勤務表（1ヶ月）'!$R$5</definedName>
+    <definedName name="numRemainingTime">'★年間勤務表（1ヶ月）'!$S$5</definedName>
+    <definedName name="outputAgreementTime">'★年間勤務表（1ヶ月）'!$T$2</definedName>
+    <definedName name="period">'★年間勤務表（1ヶ月）'!$A$1</definedName>
+    <definedName name="period1st">'★年間勤務表（1ヶ月）'!$T$5</definedName>
+    <definedName name="period2nd">'★年間勤務表（1ヶ月）'!$U$5</definedName>
+    <definedName name="period3rd">'★年間勤務表（1ヶ月）'!$V$5</definedName>
+    <definedName name="period4th">'★年間勤務表（1ヶ月）'!$W$5</definedName>
+    <definedName name="period5th">'★年間勤務表（1ヶ月）'!$X$5</definedName>
+    <definedName name="period6th">'★年間勤務表（1ヶ月）'!$Y$5</definedName>
+    <definedName name="period7th">'★年間勤務表（1ヶ月）'!$Z$5</definedName>
+    <definedName name="sum">'★年間勤務表（1ヶ月）'!$Q$5</definedName>
+    <definedName name="workplace">'★年間勤務表（1ヶ月）'!$A$4</definedName>
+    <definedName name="workplaceRange">'★年間勤務表（1ヶ月）'!$A$4:$Z$14</definedName>
     <definedName name="wrn.MIND." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="あああ" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -101,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>年間</t>
     <phoneticPr fontId="3"/>
@@ -124,11 +123,15 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>月</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>平均</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>月</t>
+    <t>残数</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -136,14 +139,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
-    <numFmt numFmtId="170" formatCode="0&quot;回&quot;;;;@"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -293,7 +295,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -301,7 +303,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -626,9 +628,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -643,7 +645,7 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" applyProtection="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="right"/>
@@ -658,8 +660,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,7 +743,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,9 +871,6 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -1286,22 +1285,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="14" width="5.42578125" style="1" customWidth="1"/>
     <col min="15" max="17" width="5.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="2" customWidth="1"/>
-    <col min="19" max="24" width="5.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.42578125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="3.140625" style="2"/>
+    <col min="18" max="19" width="3.7109375" style="2" customWidth="1"/>
+    <col min="20" max="25" width="5.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+    <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1311,14 +1310,14 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1">
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" spans="1:27" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="8"/>
@@ -1335,7 +1334,7 @@
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
       <c r="P2" s="32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="21" t="s">
         <v>0</v>
@@ -1343,18 +1342,21 @@
       <c r="R2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="14"/>
+      <c r="S2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="21"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="38"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="38"/>
+    </row>
+    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="37"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -1369,28 +1371,31 @@
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
       <c r="P3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="16"/>
+      <c r="S3" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="16"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="38"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="38"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
       <c r="I4" s="22"/>
@@ -1403,17 +1408,18 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="19"/>
-      <c r="S4" s="20"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="20"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="22"/>
       <c r="W4" s="20"/>
       <c r="X4" s="20"/>
-      <c r="Y4" s="18"/>
-    </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="18"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="40"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -1429,7 +1435,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="42"/>
-      <c r="R5" s="43"/>
+      <c r="R5" s="41"/>
       <c r="S5" s="41"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
@@ -1437,10 +1443,11 @@
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
       <c r="Y5" s="41"/>
-    </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="Z5" s="41"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" customHeight="1">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="23"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1464,10 +1471,11 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="51"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1">
+      <c r="A7" s="48"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="24"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1491,8 +1499,9 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1">
       <c r="A8" s="29"/>
       <c r="B8" s="30"/>
       <c r="C8" s="25"/>
@@ -1518,8 +1527,9 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
-    </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1">
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1">
       <c r="A9" s="29"/>
       <c r="B9" s="30"/>
       <c r="C9" s="26"/>
@@ -1545,8 +1555,9 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
       <c r="C10" s="25"/>
@@ -1572,8 +1583,9 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1">
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="A11" s="29"/>
       <c r="B11" s="30"/>
       <c r="C11" s="26"/>
@@ -1599,8 +1611,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="25"/>
@@ -1626,8 +1639,9 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1">
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1">
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
       <c r="C13" s="26"/>
@@ -1653,8 +1667,9 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="28"/>
       <c r="B14" s="31"/>
       <c r="C14" s="27"/>
@@ -1680,11 +1695,12 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1">
+      <c r="Z14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1">
       <c r="E15" s="39"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1">
+    <row r="16" spans="1:27" ht="15" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1710,8 +1726,9 @@
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
       <c r="Y16" s="36"/>
-    </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1">
+      <c r="Z16" s="36"/>
+    </row>
+    <row r="17" spans="1:26" ht="15" customHeight="1">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1737,8 +1754,9 @@
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
       <c r="Y17" s="36"/>
-    </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1">
+      <c r="Z17" s="36"/>
+    </row>
+    <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1764,8 +1782,9 @@
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
       <c r="Y18" s="36"/>
-    </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1">
+      <c r="Z18" s="36"/>
+    </row>
+    <row r="19" spans="1:26" ht="15" customHeight="1">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1791,8 +1810,9 @@
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
       <c r="Y19" s="36"/>
-    </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1">
+      <c r="Z19" s="36"/>
+    </row>
+    <row r="20" spans="1:26" ht="15" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1818,8 +1838,9 @@
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
       <c r="Y20" s="36"/>
-    </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1">
+      <c r="Z20" s="36"/>
+    </row>
+    <row r="21" spans="1:26" ht="15" customHeight="1">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1845,8 +1866,9 @@
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
       <c r="Y21" s="36"/>
-    </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1">
+      <c r="Z21" s="36"/>
+    </row>
+    <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -1872,8 +1894,9 @@
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
       <c r="Y22" s="36"/>
-    </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1">
+      <c r="Z22" s="36"/>
+    </row>
+    <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1899,8 +1922,9 @@
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
       <c r="Y23" s="36"/>
-    </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1">
+      <c r="Z23" s="36"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -1926,8 +1950,9 @@
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="36"/>
-    </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1">
+      <c r="Z24" s="36"/>
+    </row>
+    <row r="25" spans="1:26" ht="15" customHeight="1">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -1953,6 +1978,7 @@
       <c r="W25" s="36"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -83,6 +83,7 @@
     <definedName name="period5th">'★年間勤務表（1ヶ月）'!$X$5</definedName>
     <definedName name="period6th">'★年間勤務表（1ヶ月）'!$Y$5</definedName>
     <definedName name="period7th">'★年間勤務表（1ヶ月）'!$Z$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'★年間勤務表（1ヶ月）'!$1:$3</definedName>
     <definedName name="sum">'★年間勤務表（1ヶ月）'!$Q$5</definedName>
     <definedName name="workplace">'★年間勤務表（1ヶ月）'!$A$4</definedName>
     <definedName name="workplaceRange">'★年間勤務表（1ヶ月）'!$A$4:$Z$14</definedName>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -83,7 +83,6 @@
     <definedName name="period5th">'★年間勤務表（1ヶ月）'!$X$5</definedName>
     <definedName name="period6th">'★年間勤務表（1ヶ月）'!$Y$5</definedName>
     <definedName name="period7th">'★年間勤務表（1ヶ月）'!$Z$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'★年間勤務表（1ヶ月）'!$1:$3</definedName>
     <definedName name="sum">'★年間勤務表（1ヶ月）'!$Q$5</definedName>
     <definedName name="workplace">'★年間勤務表（1ヶ月）'!$A$4</definedName>
     <definedName name="workplaceRange">'★年間勤務表（1ヶ月）'!$A$4:$Z$14</definedName>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NITTSU\PJ\KWR008\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. UK\02.UkPersonInfo\SourceTreee\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,6 +83,7 @@
     <definedName name="period5th">'★年間勤務表（1ヶ月）'!$X$5</definedName>
     <definedName name="period6th">'★年間勤務表（1ヶ月）'!$Y$5</definedName>
     <definedName name="period7th">'★年間勤務表（1ヶ月）'!$Z$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'★年間勤務表（1ヶ月）'!$1:$3</definedName>
     <definedName name="sum">'★年間勤務表（1ヶ月）'!$Q$5</definedName>
     <definedName name="workplace">'★年間勤務表（1ヶ月）'!$A$4</definedName>
     <definedName name="workplaceRange">'★年間勤務表（1ヶ月）'!$A$4:$Z$14</definedName>
@@ -140,12 +141,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.000%"/>
-    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -295,7 +296,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -303,7 +304,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -628,9 +629,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -645,7 +646,7 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" applyProtection="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="right"/>
@@ -660,8 +661,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. UK\02.UkPersonInfo\SourceTreee\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NITTSU\PJ\Salary\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,10 @@
     <definedName name="def" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="empInfoLabel">'★年間勤務表（1ヶ月）'!$A$3</definedName>
-    <definedName name="employeeRange">'★年間勤務表（1ヶ月）'!$A$5:$Z$14</definedName>
+    <definedName name="employeeRange">'★年間勤務表（1ヶ月）'!$A$5:$Y$14</definedName>
     <definedName name="employmentName">'★年間勤務表（1ヶ月）'!$A$6</definedName>
     <definedName name="empName">'★年間勤務表（1ヶ月）'!$A$5</definedName>
+    <definedName name="headerRange">'★年間勤務表（1ヶ月）'!$A$2:$Y$3</definedName>
     <definedName name="item">'★年間勤務表（1ヶ月）'!$C$5</definedName>
     <definedName name="jobTitle">'★年間勤務表（1ヶ月）'!$A$7</definedName>
     <definedName name="kkkk" localSheetId="0" hidden="1">#REF!</definedName>
@@ -70,7 +71,7 @@
     <definedName name="monthPeriodLabel4">'★年間勤務表（1ヶ月）'!$W$3</definedName>
     <definedName name="monthPeriodLabel5">'★年間勤務表（1ヶ月）'!$X$3</definedName>
     <definedName name="monthPeriodLabel6">'★年間勤務表（1ヶ月）'!$Y$3</definedName>
-    <definedName name="monthPeriodLabel7">'★年間勤務表（1ヶ月）'!$Z$3</definedName>
+    <definedName name="monthPeriodLabel7">'★年間勤務表（1ヶ月）'!#REF!</definedName>
     <definedName name="numExceedTime">'★年間勤務表（1ヶ月）'!$R$5</definedName>
     <definedName name="numExceedTime1">'★年間勤務表（1ヶ月）'!$R$5</definedName>
     <definedName name="numRemainingTime">'★年間勤務表（1ヶ月）'!$S$5</definedName>
@@ -82,11 +83,12 @@
     <definedName name="period4th">'★年間勤務表（1ヶ月）'!$W$5</definedName>
     <definedName name="period5th">'★年間勤務表（1ヶ月）'!$X$5</definedName>
     <definedName name="period6th">'★年間勤務表（1ヶ月）'!$Y$5</definedName>
-    <definedName name="period7th">'★年間勤務表（1ヶ月）'!$Z$5</definedName>
+    <definedName name="period7th">'★年間勤務表（1ヶ月）'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'★年間勤務表（1ヶ月）'!$A$1:$Y$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'★年間勤務表（1ヶ月）'!$1:$3</definedName>
     <definedName name="sum">'★年間勤務表（1ヶ月）'!$Q$5</definedName>
     <definedName name="workplace">'★年間勤務表（1ヶ月）'!$A$4</definedName>
-    <definedName name="workplaceRange">'★年間勤務表（1ヶ月）'!$A$4:$Z$14</definedName>
+    <definedName name="workplaceRange">'★年間勤務表（1ヶ月）'!$A$4:$Y$14</definedName>
     <definedName name="wrn.MIND." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="あああ" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -141,12 +143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -296,7 +298,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -304,7 +306,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -629,9 +631,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -646,7 +648,7 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" applyProtection="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="right"/>
@@ -661,8 +663,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1292,11 +1294,10 @@
     <col min="15" max="17" width="5.42578125" style="2" customWidth="1"/>
     <col min="18" max="19" width="3.7109375" style="2" customWidth="1"/>
     <col min="20" max="25" width="5.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="3.140625" style="2"/>
+    <col min="26" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -1318,7 +1319,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1">
+    <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="8"/>
@@ -1351,11 +1352,10 @@
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="38"/>
-    </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1">
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="38"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="51"/>
       <c r="B3" s="51"/>
       <c r="C3" s="37"/>
@@ -1386,11 +1386,10 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="38"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" thickBot="1">
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="38"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -1416,9 +1415,8 @@
       <c r="W4" s="20"/>
       <c r="X4" s="20"/>
       <c r="Y4" s="20"/>
-      <c r="Z4" s="18"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="A5" s="52"/>
       <c r="B5" s="53"/>
       <c r="C5" s="40"/>
@@ -1444,9 +1442,8 @@
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
       <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
       <c r="C6" s="23"/>
@@ -1472,9 +1469,8 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="48"/>
       <c r="B7" s="50"/>
       <c r="C7" s="24"/>
@@ -1500,9 +1496,8 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="29"/>
       <c r="B8" s="30"/>
       <c r="C8" s="25"/>
@@ -1528,9 +1523,8 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" s="29"/>
       <c r="B9" s="30"/>
       <c r="C9" s="26"/>
@@ -1556,9 +1550,8 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
       <c r="C10" s="25"/>
@@ -1584,9 +1577,8 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="29"/>
       <c r="B11" s="30"/>
       <c r="C11" s="26"/>
@@ -1612,9 +1604,8 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="25"/>
@@ -1640,9 +1631,8 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1">
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
       <c r="C13" s="26"/>
@@ -1668,9 +1658,8 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" thickBot="1">
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="28"/>
       <c r="B14" s="31"/>
       <c r="C14" s="27"/>
@@ -1696,12 +1685,11 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="E15" s="39"/>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1">
+    <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1727,9 +1715,8 @@
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
       <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-    </row>
-    <row r="17" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="17" spans="1:25" ht="15" customHeight="1">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1755,9 +1742,8 @@
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
       <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-    </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="18" spans="1:25" ht="15" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1783,9 +1769,8 @@
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
       <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-    </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="19" spans="1:25" ht="15" customHeight="1">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1811,9 +1796,8 @@
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
       <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-    </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="20" spans="1:25" ht="15" customHeight="1">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1839,9 +1823,8 @@
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
       <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-    </row>
-    <row r="21" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="21" spans="1:25" ht="15" customHeight="1">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1867,9 +1850,8 @@
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
       <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-    </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="22" spans="1:25" ht="15" customHeight="1">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -1895,9 +1877,8 @@
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
       <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-    </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="23" spans="1:25" ht="15" customHeight="1">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1923,9 +1904,8 @@
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
       <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-    </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="24" spans="1:25" ht="15" customHeight="1">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -1951,9 +1931,8 @@
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-    </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1">
+    </row>
+    <row r="25" spans="1:25" ht="15" customHeight="1">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -1979,7 +1958,6 @@
       <c r="W25" s="36"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1993,7 +1971,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"MSゴシック,Regular"あいうえおあいうえおあいうえおあ株式会社
 &amp;C&amp;"MSゴシック,Regular"&amp;16★年間勤務表（1ヶ月）&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NITTSU\PJ\Salary\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThanhPV\UK_fixBug\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,12 +143,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.000%"/>
-    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;｣&quot;* #,##0.00_-;\-&quot;｣&quot;* #,##0.00_-;_-&quot;｣&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,\);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot; $&quot;;\-#,##0.00&quot; $&quot;"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -298,7 +298,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -306,7 +306,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -363,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -622,6 +622,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,9 +668,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -648,7 +685,7 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" applyProtection="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="right"/>
@@ -663,8 +700,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,7 +783,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,12 +826,6 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="6" borderId="8" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -907,6 +938,15 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -921,7 +961,6 @@
     <cellStyle name="Header2" xfId="9"/>
     <cellStyle name="Input [yellow]" xfId="10"/>
     <cellStyle name="KWE標準" xfId="11"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="12"/>
     <cellStyle name="Percent [2]" xfId="13"/>
     <cellStyle name="price" xfId="14"/>
@@ -936,10 +975,10 @@
     <cellStyle name="ハイパーリンク 3" xfId="23"/>
     <cellStyle name="ハイパーリンク 4" xfId="24"/>
     <cellStyle name="ハイパーリンク 5" xfId="25"/>
-    <cellStyle name="未定義" xfId="57"/>
     <cellStyle name="桁区切り 2" xfId="1"/>
     <cellStyle name="桁区切り 2 2" xfId="26"/>
     <cellStyle name="桁区切り 3" xfId="27"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 10" xfId="28"/>
     <cellStyle name="標準 11" xfId="29"/>
     <cellStyle name="標準 12" xfId="30"/>
@@ -970,6 +1009,7 @@
     <cellStyle name="標準 7" xfId="54"/>
     <cellStyle name="標準 8" xfId="55"/>
     <cellStyle name="標準 9" xfId="56"/>
+    <cellStyle name="未定義" xfId="57"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -994,7 +1034,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1283,7 +1323,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Y3"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1298,11 +1338,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1323,54 +1363,54 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="32" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="38"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="36"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
       <c r="P3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1381,72 +1421,72 @@
       <c r="S3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="38"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="36"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1471,9 +1511,9 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="24"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1498,9 +1538,9 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1525,9 +1565,9 @@
       <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1552,9 +1592,9 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1579,9 +1619,9 @@
       <c r="Y10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1606,9 +1646,9 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1633,9 +1673,9 @@
       <c r="Y12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1660,9 +1700,9 @@
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1687,280 +1727,281 @@
       <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
-      <c r="E15" s="39"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
     </row>
     <row r="24" spans="1:25" ht="15" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
     </row>
     <row r="25" spans="1:25" ht="15" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="T2:Y2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:B6"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThanhPV\UK_fixBug\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Source\00_UK\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A51475-C13B-4EE4-B19D-5ACB7F7C7D06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="★年間勤務表（1ヶ月）" sheetId="15" r:id="rId1"/>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="165" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
@@ -907,6 +908,15 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -931,85 +941,76 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
-    <cellStyle name="Calc Currency (0)" xfId="3"/>
-    <cellStyle name="Dezimal [0]_Compiling Utility Macros" xfId="4"/>
-    <cellStyle name="Dezimal_Compiling Utility Macros" xfId="5"/>
-    <cellStyle name="entry" xfId="6"/>
-    <cellStyle name="Grey" xfId="7"/>
-    <cellStyle name="Header1" xfId="8"/>
-    <cellStyle name="Header1 2" xfId="58"/>
-    <cellStyle name="Header2" xfId="9"/>
-    <cellStyle name="Input [yellow]" xfId="10"/>
-    <cellStyle name="KWE標準" xfId="11"/>
-    <cellStyle name="Normal - Style1" xfId="12"/>
-    <cellStyle name="Percent [2]" xfId="13"/>
-    <cellStyle name="price" xfId="14"/>
-    <cellStyle name="revised" xfId="15"/>
-    <cellStyle name="section" xfId="16"/>
-    <cellStyle name="Standard_Anpassen der Amortisation" xfId="17"/>
-    <cellStyle name="title" xfId="18"/>
-    <cellStyle name="W臧rung [0]_Compiling Utility Macros" xfId="19"/>
-    <cellStyle name="W臧rung_Compiling Utility Macros" xfId="20"/>
-    <cellStyle name="タイトル 2" xfId="21"/>
-    <cellStyle name="ハイパーリンク 2" xfId="22"/>
-    <cellStyle name="ハイパーリンク 3" xfId="23"/>
-    <cellStyle name="ハイパーリンク 4" xfId="24"/>
-    <cellStyle name="ハイパーリンク 5" xfId="25"/>
-    <cellStyle name="桁区切り 2" xfId="1"/>
-    <cellStyle name="桁区切り 2 2" xfId="26"/>
-    <cellStyle name="桁区切り 3" xfId="27"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="28"/>
-    <cellStyle name="標準 11" xfId="29"/>
-    <cellStyle name="標準 12" xfId="30"/>
-    <cellStyle name="標準 13" xfId="31"/>
-    <cellStyle name="標準 14" xfId="32"/>
-    <cellStyle name="標準 15" xfId="33"/>
-    <cellStyle name="標準 16" xfId="34"/>
-    <cellStyle name="標準 17" xfId="2"/>
-    <cellStyle name="標準 2" xfId="35"/>
-    <cellStyle name="標準 2 2" xfId="36"/>
-    <cellStyle name="標準 2 2 2" xfId="37"/>
-    <cellStyle name="標準 2 3" xfId="38"/>
-    <cellStyle name="標準 2 4" xfId="39"/>
-    <cellStyle name="標準 3" xfId="40"/>
-    <cellStyle name="標準 3 2" xfId="41"/>
-    <cellStyle name="標準 3 3" xfId="42"/>
-    <cellStyle name="標準 3 4" xfId="43"/>
-    <cellStyle name="標準 4" xfId="44"/>
-    <cellStyle name="標準 4 2" xfId="45"/>
-    <cellStyle name="標準 4 2 2" xfId="46"/>
-    <cellStyle name="標準 4 3" xfId="47"/>
-    <cellStyle name="標準 5" xfId="48"/>
-    <cellStyle name="標準 5 2" xfId="49"/>
-    <cellStyle name="標準 5 3" xfId="50"/>
-    <cellStyle name="標準 6" xfId="51"/>
-    <cellStyle name="標準 6 2" xfId="52"/>
-    <cellStyle name="標準 6 3" xfId="53"/>
-    <cellStyle name="標準 7" xfId="54"/>
-    <cellStyle name="標準 8" xfId="55"/>
-    <cellStyle name="標準 9" xfId="56"/>
-    <cellStyle name="未定義" xfId="57"/>
+    <cellStyle name="Calc Currency (0)" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Dezimal [0]_Compiling Utility Macros" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Dezimal_Compiling Utility Macros" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="entry" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Grey" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Header1" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Header1 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Header2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Input [yellow]" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="KWE標準" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal - Style1" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Percent [2]" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="price" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="revised" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="section" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Standard_Anpassen der Amortisation" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="title" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="W臧rung [0]_Compiling Utility Macros" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="W臧rung_Compiling Utility Macros" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="タイトル 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="ハイパーリンク 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="ハイパーリンク 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="ハイパーリンク 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="ハイパーリンク 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="未定義" xfId="57" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="桁区切り 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="桁区切り 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="桁区切り 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="標準 10" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="標準 11" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="標準 12" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="標準 13" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="標準 14" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="標準 15" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="標準 16" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="標準 17" xfId="2" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="標準 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="標準 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="標準 2 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="標準 2 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="標準 2 4" xfId="39" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="標準 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="標準 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="標準 3 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 3 4" xfId="43" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="標準 4 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="標準 4 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="標準 4 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="標準 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="標準 5 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="標準 5 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="標準 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="標準 6 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="標準 6 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="標準 7" xfId="54" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="標準 8" xfId="55" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="標準 9" xfId="56" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1034,7 +1035,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1109,6 +1110,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1144,6 +1162,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1319,11 +1354,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1338,11 +1373,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1387,17 +1422,17 @@
       <c r="S2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="52"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="54"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="36"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="35"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -1430,12 +1465,12 @@
       <c r="Z3" s="36"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="20"/>
@@ -1457,8 +1492,8 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="38"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -1484,8 +1519,8 @@
       <c r="Y5" s="39"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="21"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1511,8 +1546,8 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="22"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Source\00_UK\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A51475-C13B-4EE4-B19D-5ACB7F7C7D06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A433E19-CD10-44B2-9D8D-3F140B06B13A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="★年間勤務表（1ヶ月）" sheetId="15" r:id="rId1"/>
@@ -99,7 +99,7 @@
     <definedName name="概要_基準日設定" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -941,14 +941,14 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1431,8 +1431,8 @@
       <c r="Z2" s="36"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="35"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -1492,8 +1492,8 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="38"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Source\00_UK\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A433E19-CD10-44B2-9D8D-3F140B06B13A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3117A50C-0310-4F1F-8DFE-08DE317BEE11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <definedName name="def" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="empInfoLabel">'★年間勤務表（1ヶ月）'!$A$3</definedName>
-    <definedName name="employeeRange">'★年間勤務表（1ヶ月）'!$A$5:$Y$14</definedName>
+    <definedName name="employeeRange">'★年間勤務表（1ヶ月）'!$A$5:$Y$15</definedName>
     <definedName name="employmentName">'★年間勤務表（1ヶ月）'!$A$6</definedName>
     <definedName name="empName">'★年間勤務表（1ヶ月）'!$A$5</definedName>
     <definedName name="headerRange">'★年間勤務表（1ヶ月）'!$A$2:$Y$3</definedName>
@@ -85,11 +85,11 @@
     <definedName name="period5th">'★年間勤務表（1ヶ月）'!$X$5</definedName>
     <definedName name="period6th">'★年間勤務表（1ヶ月）'!$Y$5</definedName>
     <definedName name="period7th">'★年間勤務表（1ヶ月）'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'★年間勤務表（1ヶ月）'!$A$1:$Y$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'★年間勤務表（1ヶ月）'!$A$1:$Y$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'★年間勤務表（1ヶ月）'!$1:$3</definedName>
     <definedName name="sum">'★年間勤務表（1ヶ月）'!$Q$5</definedName>
     <definedName name="workplace">'★年間勤務表（1ヶ月）'!$A$4</definedName>
-    <definedName name="workplaceRange">'★年間勤務表（1ヶ月）'!$A$4:$Y$14</definedName>
+    <definedName name="workplaceRange">'★年間勤務表（1ヶ月）'!$A$4:$Y$15</definedName>
     <definedName name="wrn.MIND." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="あああ" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -806,9 +806,6 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,9 +821,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="6" borderId="8" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -860,9 +854,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -949,6 +940,15 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1355,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1373,11 +1373,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1397,131 +1397,131 @@
     <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="30" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="36"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="33"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="9" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="36"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="33"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1535,7 +1535,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -1546,9 +1546,9 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1562,7 +1562,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1573,9 +1573,9 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1589,7 +1589,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -1600,9 +1600,9 @@
       <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1616,7 +1616,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="11"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1627,9 +1627,9 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1643,7 +1643,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -1654,9 +1654,9 @@
       <c r="Y10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1670,7 +1670,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="11"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1681,9 +1681,9 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1697,7 +1697,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="11"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1708,9 +1708,9 @@
       <c r="Y12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1724,7 +1724,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="12"/>
+      <c r="Q13" s="11"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1734,305 +1734,332 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1">
-      <c r="E15" s="37"/>
+    <row r="14" spans="1:26" ht="15" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
     </row>
     <row r="24" spans="1:25" ht="15" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
     </row>
     <row r="25" spans="1:25" ht="15" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+    </row>
+    <row r="26" spans="1:25" ht="15" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -919,6 +919,9 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,9 +933,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1346,9 +1346,9 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1382,9 +1382,9 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -1416,31 +1416,31 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
       <c r="A5" s="43"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Source\00_UK\UK_Clone\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878F00F6-B732-4319-B2B1-3279B66C9490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="★年間勤務表（1ヶ月）" sheetId="15" r:id="rId1"/>
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="165" formatCode="_-&quot;｣&quot;* #,##0_-;\-&quot;｣&quot;* #,##0_-;_-&quot;｣&quot;* &quot;-&quot;_-;_-@_-"/>
@@ -936,65 +937,65 @@
     </xf>
   </cellXfs>
   <cellStyles count="59">
-    <cellStyle name="Calc Currency (0)" xfId="3"/>
-    <cellStyle name="Dezimal [0]_Compiling Utility Macros" xfId="4"/>
-    <cellStyle name="Dezimal_Compiling Utility Macros" xfId="5"/>
-    <cellStyle name="entry" xfId="6"/>
-    <cellStyle name="Grey" xfId="7"/>
-    <cellStyle name="Header1" xfId="8"/>
-    <cellStyle name="Header1 2" xfId="58"/>
-    <cellStyle name="Header2" xfId="9"/>
-    <cellStyle name="Input [yellow]" xfId="10"/>
-    <cellStyle name="KWE標準" xfId="11"/>
+    <cellStyle name="Calc Currency (0)" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Dezimal [0]_Compiling Utility Macros" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Dezimal_Compiling Utility Macros" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="entry" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Grey" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Header1" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Header1 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Header2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Input [yellow]" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="KWE標準" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="12"/>
-    <cellStyle name="Percent [2]" xfId="13"/>
-    <cellStyle name="price" xfId="14"/>
-    <cellStyle name="revised" xfId="15"/>
-    <cellStyle name="section" xfId="16"/>
-    <cellStyle name="Standard_Anpassen der Amortisation" xfId="17"/>
-    <cellStyle name="title" xfId="18"/>
-    <cellStyle name="W臧rung [0]_Compiling Utility Macros" xfId="19"/>
-    <cellStyle name="W臧rung_Compiling Utility Macros" xfId="20"/>
-    <cellStyle name="タイトル 2" xfId="21"/>
-    <cellStyle name="ハイパーリンク 2" xfId="22"/>
-    <cellStyle name="ハイパーリンク 3" xfId="23"/>
-    <cellStyle name="ハイパーリンク 4" xfId="24"/>
-    <cellStyle name="ハイパーリンク 5" xfId="25"/>
-    <cellStyle name="未定義" xfId="57"/>
-    <cellStyle name="桁区切り 2" xfId="1"/>
-    <cellStyle name="桁区切り 2 2" xfId="26"/>
-    <cellStyle name="桁区切り 3" xfId="27"/>
-    <cellStyle name="標準 10" xfId="28"/>
-    <cellStyle name="標準 11" xfId="29"/>
-    <cellStyle name="標準 12" xfId="30"/>
-    <cellStyle name="標準 13" xfId="31"/>
-    <cellStyle name="標準 14" xfId="32"/>
-    <cellStyle name="標準 15" xfId="33"/>
-    <cellStyle name="標準 16" xfId="34"/>
-    <cellStyle name="標準 17" xfId="2"/>
-    <cellStyle name="標準 2" xfId="35"/>
-    <cellStyle name="標準 2 2" xfId="36"/>
-    <cellStyle name="標準 2 2 2" xfId="37"/>
-    <cellStyle name="標準 2 3" xfId="38"/>
-    <cellStyle name="標準 2 4" xfId="39"/>
-    <cellStyle name="標準 3" xfId="40"/>
-    <cellStyle name="標準 3 2" xfId="41"/>
-    <cellStyle name="標準 3 3" xfId="42"/>
-    <cellStyle name="標準 3 4" xfId="43"/>
-    <cellStyle name="標準 4" xfId="44"/>
-    <cellStyle name="標準 4 2" xfId="45"/>
-    <cellStyle name="標準 4 2 2" xfId="46"/>
-    <cellStyle name="標準 4 3" xfId="47"/>
-    <cellStyle name="標準 5" xfId="48"/>
-    <cellStyle name="標準 5 2" xfId="49"/>
-    <cellStyle name="標準 5 3" xfId="50"/>
-    <cellStyle name="標準 6" xfId="51"/>
-    <cellStyle name="標準 6 2" xfId="52"/>
-    <cellStyle name="標準 6 3" xfId="53"/>
-    <cellStyle name="標準 7" xfId="54"/>
-    <cellStyle name="標準 8" xfId="55"/>
-    <cellStyle name="標準 9" xfId="56"/>
+    <cellStyle name="Normal - Style1" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Percent [2]" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="price" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="revised" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="section" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Standard_Anpassen der Amortisation" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="title" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="W臧rung [0]_Compiling Utility Macros" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="W臧rung_Compiling Utility Macros" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="タイトル 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="ハイパーリンク 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="ハイパーリンク 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="ハイパーリンク 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="ハイパーリンク 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="未定義" xfId="57" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="桁区切り 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="桁区切り 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="桁区切り 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="標準 10" xfId="28" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="標準 11" xfId="29" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="標準 12" xfId="30" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="標準 13" xfId="31" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="標準 14" xfId="32" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="標準 15" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="標準 16" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="標準 17" xfId="2" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="標準 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="標準 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="標準 2 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="標準 2 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="標準 2 4" xfId="39" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="標準 3" xfId="40" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="標準 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 3 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準 3 4" xfId="43" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="標準 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="標準 4 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="標準 4 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="標準 4 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="標準 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="標準 5 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="標準 5 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="標準 6" xfId="51" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="標準 6 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="標準 6 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="標準 7" xfId="54" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="標準 8" xfId="55" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="標準 9" xfId="56" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1094,6 +1095,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1129,6 +1147,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1304,23 +1339,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="14" width="5" style="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="2" customWidth="1"/>
-    <col min="16" max="17" width="5.42578125" style="2" customWidth="1"/>
-    <col min="18" max="19" width="3.7109375" style="2" customWidth="1"/>
-    <col min="20" max="25" width="5.42578125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="3.140625" style="2"/>
+    <col min="16" max="17" width="5.44140625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="3.6640625" style="2" customWidth="1"/>
+    <col min="20" max="25" width="5.44140625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="3.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -2025,8 +2060,8 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"MSゴシック,Regular"あいうえおあいうえおあいうえおあ株式会社
 &amp;C&amp;"MSゴシック,Regular"&amp;16★年間勤務表（1ヶ月）&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878F00F6-B732-4319-B2B1-3279B66C9490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE153A0-C2F5-4F74-A846-F08CB88D8E93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1343,10 +1343,10 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="P18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="8.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
@@ -1358,7 +1358,7 @@
     <col min="26" max="16384" width="3.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:26" ht="14.4" customHeight="1" thickBot="1">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -1380,7 +1380,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1">
+    <row r="2" spans="1:26" ht="14.4" customHeight="1">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -1416,7 +1416,7 @@
       <c r="Y2" s="37"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:26" ht="14.4" customHeight="1" thickBot="1">
       <c r="A3" s="48"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -1450,7 +1450,7 @@
       <c r="Y3" s="31"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="4" spans="1:26" ht="14.4" customHeight="1" thickBot="1">
       <c r="A4" s="45"/>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -1477,7 +1477,7 @@
       <c r="X4" s="45"/>
       <c r="Y4" s="45"/>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1">
+    <row r="5" spans="1:26" ht="14.4" customHeight="1">
       <c r="A5" s="43"/>
       <c r="B5" s="44"/>
       <c r="C5" s="24"/>
@@ -1504,7 +1504,7 @@
       <c r="X5" s="25"/>
       <c r="Y5" s="27"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1">
+    <row r="6" spans="1:26" ht="14.4" customHeight="1">
       <c r="A6" s="40"/>
       <c r="B6" s="41"/>
       <c r="C6" s="14"/>
@@ -1531,7 +1531,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="22"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1">
+    <row r="7" spans="1:26" ht="14.4" customHeight="1">
       <c r="A7" s="40"/>
       <c r="B7" s="42"/>
       <c r="C7" s="17"/>
@@ -1558,7 +1558,7 @@
       <c r="X7" s="18"/>
       <c r="Y7" s="23"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1">
+    <row r="8" spans="1:26" ht="14.4" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="20"/>
@@ -1585,7 +1585,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="22"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1">
+    <row r="9" spans="1:26" ht="14.4" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="21"/>
@@ -1612,7 +1612,7 @@
       <c r="X9" s="18"/>
       <c r="Y9" s="23"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1">
+    <row r="10" spans="1:26" ht="14.4" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="20"/>
@@ -1639,7 +1639,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="22"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1">
+    <row r="11" spans="1:26" ht="14.4" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="21"/>
@@ -1666,7 +1666,7 @@
       <c r="X11" s="18"/>
       <c r="Y11" s="23"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1">
+    <row r="12" spans="1:26" ht="14.4" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="20"/>
@@ -1693,7 +1693,7 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="22"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1">
+    <row r="13" spans="1:26" ht="14.4" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="21"/>
@@ -1720,7 +1720,7 @@
       <c r="X13" s="18"/>
       <c r="Y13" s="23"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1">
+    <row r="14" spans="1:26" ht="14.4" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="20"/>
@@ -1747,7 +1747,7 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="22"/>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1">
+    <row r="15" spans="1:26" ht="14.4" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="33"/>
@@ -1774,10 +1774,10 @@
       <c r="X15" s="34"/>
       <c r="Y15" s="35"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1">
+    <row r="16" spans="1:26" ht="14.4" customHeight="1">
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1">
+    <row r="17" spans="1:25" ht="14.4" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1804,7 +1804,7 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1">
+    <row r="18" spans="1:25" ht="14.4" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1831,7 +1831,7 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1">
+    <row r="19" spans="1:25" ht="14.4" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1858,7 +1858,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1">
+    <row r="20" spans="1:25" ht="14.4" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1885,7 +1885,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1">
+    <row r="21" spans="1:25" ht="14.4" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1912,7 +1912,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1">
+    <row r="22" spans="1:25" ht="14.4" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1939,7 +1939,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1">
+    <row r="23" spans="1:25" ht="14.4" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1966,7 +1966,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1">
+    <row r="24" spans="1:25" ht="14.4" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1993,7 +1993,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" spans="1:25" ht="15" customHeight="1">
+    <row r="25" spans="1:25" ht="14.4" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2020,7 +2020,7 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1">
+    <row r="26" spans="1:25" ht="14.4" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE153A0-C2F5-4F74-A846-F08CB88D8E93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF12C05-E666-4EB0-98CE-169DAA3254B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,17 +923,23 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1343,7 +1349,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P18" sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="14.4" customHeight="1"/>
@@ -1381,9 +1387,9 @@
       <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="14.4" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1417,9 +1423,9 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
